--- a/Virtual Labs.xlsx
+++ b/Virtual Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Optum Global/12_May_2025_Optum_Global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{DB001001-450F-4F81-8359-B3B01BE7EF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47214207-18D5-4598-9945-F5FCAEC71BA6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{DB001001-450F-4F81-8359-B3B01BE7EF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1730242-C871-4D7C-9156-D58EB1AB5667}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{3EF0E97F-8CA4-49AE-BCF5-22E612B9CAF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>VMS-Optum Global-Advance-12 to 14-May-2025-BPM-57989-Optum</t>
   </si>
@@ -213,6 +213,33 @@
   </si>
   <si>
     <t>47989python4u#26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harsimranjot </t>
+  </si>
+  <si>
+    <t>Rajkumar Adlagattu</t>
+  </si>
+  <si>
+    <t>Priyanka Rani</t>
+  </si>
+  <si>
+    <t>Shobhit Sharma</t>
+  </si>
+  <si>
+    <t>Sowjanya Veeramallu</t>
+  </si>
+  <si>
+    <t>Ankit Aggarwal</t>
+  </si>
+  <si>
+    <t>Rahul Chauhan</t>
+  </si>
+  <si>
+    <t>Chandu Pulumati</t>
+  </si>
+  <si>
+    <t>Raghwendra Singh</t>
   </si>
 </sst>
 </file>
@@ -490,6 +517,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,7 +843,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -863,7 +894,9 @@
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
@@ -878,7 +911,9 @@
       <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
@@ -893,7 +928,9 @@
       <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
@@ -908,7 +945,9 @@
       <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
@@ -923,7 +962,9 @@
       <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
@@ -938,7 +979,9 @@
       <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
@@ -953,7 +996,9 @@
       <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
@@ -968,7 +1013,9 @@
       <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
@@ -983,7 +1030,9 @@
       <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">

--- a/Virtual Labs.xlsx
+++ b/Virtual Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Optum Global/12_May_2025_Optum_Global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{DB001001-450F-4F81-8359-B3B01BE7EF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1730242-C871-4D7C-9156-D58EB1AB5667}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{DB001001-450F-4F81-8359-B3B01BE7EF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78593AFB-3E1B-4F95-860B-FC13DC1A2FB6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{3EF0E97F-8CA4-49AE-BCF5-22E612B9CAF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>VMS-Optum Global-Advance-12 to 14-May-2025-BPM-57989-Optum</t>
   </si>
@@ -56,9 +56,6 @@
     <t>VM Assigned Name</t>
   </si>
   <si>
-    <t>https://online.vinsys.com</t>
-  </si>
-  <si>
     <t>47989python01</t>
   </si>
   <si>
@@ -240,6 +237,18 @@
   </si>
   <si>
     <t>Raghwendra Singh</t>
+  </si>
+  <si>
+    <t>Amit Kumar</t>
+  </si>
+  <si>
+    <t>Praveena Bunga</t>
+  </si>
+  <si>
+    <t>Preeti</t>
+  </si>
+  <si>
+    <t>https://skylabs.vinsys.com</t>
   </si>
 </sst>
 </file>
@@ -450,9 +459,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,6 +500,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,16 +852,16 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -885,414 +894,423 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="B13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="B15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="B17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="B19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="B21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="B23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="B25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="B27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>23</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
-        <v>24</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
-        <v>25</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="B28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{66F71318-B5B7-4508-B888-C43CCD4F67C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>